--- a/Code/Results/Cases/Case_3_239/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_239/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.80792475651314</v>
+        <v>8.548630032445971</v>
       </c>
       <c r="C2">
-        <v>8.140920922281989</v>
+        <v>5.970463816142452</v>
       </c>
       <c r="D2">
-        <v>5.776127700023157</v>
+        <v>6.9900901382996</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.0436245997893</v>
+        <v>37.85399937855807</v>
       </c>
       <c r="G2">
-        <v>2.106370121775867</v>
+        <v>3.684164499749922</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.83113536481857</v>
+        <v>29.76982366931074</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.865798570680516</v>
+        <v>9.740037407290277</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.53389319745253</v>
+        <v>19.98603826851946</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.156151212106412</v>
+        <v>8.45602314389853</v>
       </c>
       <c r="C3">
-        <v>7.556225329502809</v>
+        <v>5.809500048581438</v>
       </c>
       <c r="D3">
-        <v>5.766342049820984</v>
+        <v>6.972064157142922</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.27975087783494</v>
+        <v>37.36635795548637</v>
       </c>
       <c r="G3">
-        <v>2.115592929893229</v>
+        <v>3.68717132107713</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.83671778009922</v>
+        <v>29.51202224410364</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.244538356689395</v>
+        <v>9.683072517760785</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.23495132288884</v>
+        <v>19.40631995522224</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.734523239337365</v>
+        <v>8.402533371951099</v>
       </c>
       <c r="C4">
-        <v>7.179152216458124</v>
+        <v>5.710624044603991</v>
       </c>
       <c r="D4">
-        <v>5.759865336116675</v>
+        <v>6.960524060257514</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.1830599919568</v>
+        <v>37.06926494600875</v>
       </c>
       <c r="G4">
-        <v>2.12135919145125</v>
+        <v>3.689110801691855</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.22491317538958</v>
+        <v>29.35571064334581</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.843943248958835</v>
+        <v>9.651512405191149</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.77721920603523</v>
+        <v>19.04988425719545</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.557271260640992</v>
+        <v>8.381617084088896</v>
       </c>
       <c r="C5">
-        <v>7.020873668196819</v>
+        <v>5.670392966086945</v>
       </c>
       <c r="D5">
-        <v>5.757110933076131</v>
+        <v>6.955702245480214</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.73303423018513</v>
+        <v>36.94888966563617</v>
       </c>
       <c r="G5">
-        <v>2.123737947462979</v>
+        <v>3.689924705690023</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.97541099227605</v>
+        <v>29.29254888280055</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.675857417108192</v>
+        <v>9.639525166342333</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.17060717316431</v>
+        <v>18.90475124212305</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.527509196716844</v>
+        <v>8.378198111111148</v>
       </c>
       <c r="C6">
-        <v>6.994310615352381</v>
+        <v>5.66371852883289</v>
       </c>
       <c r="D6">
-        <v>5.756646678205561</v>
+        <v>6.95489437895922</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.65813073645575</v>
+        <v>36.92894642143912</v>
       </c>
       <c r="G6">
-        <v>2.12413476721521</v>
+        <v>3.690061278936789</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.93397428837059</v>
+        <v>29.28209442819684</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.647653945962492</v>
+        <v>9.637587864043393</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.06909458260752</v>
+        <v>18.88066630669338</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.732154820640435</v>
+        <v>8.402247676815595</v>
       </c>
       <c r="C7">
-        <v>7.17703641095462</v>
+        <v>5.71008112636792</v>
       </c>
       <c r="D7">
-        <v>5.759828652335881</v>
+        <v>6.960459514508773</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.17700291170235</v>
+        <v>37.0676385760578</v>
       </c>
       <c r="G7">
-        <v>2.121391151272463</v>
+        <v>3.689121682807724</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.22154887160909</v>
+        <v>29.354856599367</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.841696011498689</v>
+        <v>9.65134718507769</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.76909031426234</v>
+        <v>19.04792614299732</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.587614254599726</v>
+        <v>8.516020226287276</v>
       </c>
       <c r="C8">
-        <v>7.943020986985318</v>
+        <v>5.915015253191753</v>
       </c>
       <c r="D8">
-        <v>5.772852680515709</v>
+        <v>6.983972502132392</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.43844088413611</v>
+        <v>37.68544471307943</v>
       </c>
       <c r="G8">
-        <v>2.109530568082594</v>
+        <v>3.685181948115045</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.48857650896752</v>
+        <v>29.68054649056301</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.655540883788751</v>
+        <v>9.719696076637687</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.75017529331997</v>
+        <v>19.78639285441124</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.09727091521383</v>
+        <v>8.764304766841407</v>
       </c>
       <c r="C9">
-        <v>9.305451601332635</v>
+        <v>6.313511207159841</v>
       </c>
       <c r="D9">
-        <v>5.794499311750811</v>
+        <v>7.026355333424945</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.75582078225045</v>
+        <v>38.91054152076692</v>
       </c>
       <c r="G9">
-        <v>2.086937956176949</v>
+        <v>3.678191982686097</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.96041599056244</v>
+        <v>30.33317946629499</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.10134437110936</v>
+        <v>9.88011729974583</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.28235913978192</v>
+        <v>21.22071964890977</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.10725530798282</v>
+        <v>8.959849179978955</v>
       </c>
       <c r="C10">
-        <v>10.22700957821421</v>
+        <v>6.600429488238202</v>
       </c>
       <c r="D10">
-        <v>5.807647587620282</v>
+        <v>7.055250240163947</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.85311056647048</v>
+        <v>39.81241494629256</v>
       </c>
       <c r="G10">
-        <v>2.070485656259453</v>
+        <v>3.67349901474923</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.76892261163697</v>
+        <v>30.8187762874194</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.07500711253178</v>
+        <v>10.01300139100805</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.24908109111445</v>
+        <v>22.25375422250486</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.54589176916587</v>
+        <v>9.051165699379917</v>
       </c>
       <c r="C11">
-        <v>10.63047734346658</v>
+        <v>6.72896620154513</v>
       </c>
       <c r="D11">
-        <v>5.812884857978784</v>
+        <v>7.06791394601471</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.24813186811942</v>
+        <v>40.22172668537277</v>
       </c>
       <c r="G11">
-        <v>2.062957561837516</v>
+        <v>3.67145886592864</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.59163106289191</v>
+        <v>31.04048833059582</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.49950026038596</v>
+        <v>10.07646291453486</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.06182392709666</v>
+        <v>22.71689135662222</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.70905221793256</v>
+        <v>9.086042871735442</v>
       </c>
       <c r="C12">
-        <v>10.78113811485971</v>
+        <v>6.777300820038144</v>
       </c>
       <c r="D12">
-        <v>5.8147415605508</v>
+        <v>7.072640663983528</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.77480239135777</v>
+        <v>40.37647290802109</v>
       </c>
       <c r="G12">
-        <v>2.060092315442276</v>
+        <v>3.670699833351534</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.90344243680084</v>
+        <v>31.12451665965057</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.65766476552912</v>
+        <v>10.10090453577701</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.75290728449124</v>
+        <v>22.891121531842</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.67404279857283</v>
+        <v>9.078518882856084</v>
       </c>
       <c r="C13">
-        <v>10.74878257264546</v>
+        <v>6.766907005281675</v>
       </c>
       <c r="D13">
-        <v>5.814347719886174</v>
+        <v>7.071625732549487</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.66143629777666</v>
+        <v>40.34315850091427</v>
       </c>
       <c r="G13">
-        <v>2.060710198038572</v>
+        <v>3.670862704407276</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.83627049691689</v>
+        <v>31.10641723877798</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.62371491162225</v>
+        <v>10.09562272963556</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.60379646423357</v>
+        <v>22.85365166015715</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.55937376754033</v>
+        <v>9.054029342157413</v>
       </c>
       <c r="C14">
-        <v>10.64291396562296</v>
+        <v>6.73294981648099</v>
       </c>
       <c r="D14">
-        <v>5.813040288827726</v>
+        <v>7.068304191719355</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.29149012773372</v>
+        <v>40.23446342905192</v>
       </c>
       <c r="G14">
-        <v>2.062722182200312</v>
+        <v>3.671396149271279</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.6172765327421</v>
+        <v>31.04740023629611</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.5125638888103</v>
+        <v>10.07846565653844</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.11856298889774</v>
+        <v>22.7312493528282</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.48875397325154</v>
+        <v>9.039066297395864</v>
       </c>
       <c r="C15">
-        <v>10.57779440500978</v>
+        <v>6.712104323548808</v>
       </c>
       <c r="D15">
-        <v>5.812222245686187</v>
+        <v>7.066260709494972</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.06469598686474</v>
+        <v>40.16784850136219</v>
       </c>
       <c r="G15">
-        <v>2.063952408842141</v>
+        <v>3.671724658631821</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.48318183913003</v>
+        <v>31.01125847315225</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.44414653982447</v>
+        <v>10.06800916748832</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.82206896777254</v>
+        <v>22.65611982084151</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.07817511372319</v>
+        <v>8.953925366740643</v>
       </c>
       <c r="C16">
-        <v>10.20033662145837</v>
+        <v>6.591984655020819</v>
       </c>
       <c r="D16">
-        <v>5.807288858533259</v>
+        <v>7.054412995923466</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.76169216385978</v>
+        <v>39.78563644967475</v>
       </c>
       <c r="G16">
-        <v>2.070976097149908</v>
+        <v>3.673634241208459</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.71517675789885</v>
+        <v>30.80429929270769</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.04690037760347</v>
+        <v>10.00891269222485</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.13105087392951</v>
+        <v>22.2233352512412</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.82100618467143</v>
+        <v>8.902269262762442</v>
       </c>
       <c r="C17">
-        <v>9.964837764207184</v>
+        <v>6.517747001549902</v>
       </c>
       <c r="D17">
-        <v>5.804060309026532</v>
+        <v>7.047021949770679</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.95899440084733</v>
+        <v>39.55083531771094</v>
       </c>
       <c r="G17">
-        <v>2.075268448302613</v>
+        <v>3.674829899870613</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.24418303672731</v>
+        <v>30.6775117809827</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.79852955668649</v>
+        <v>9.973414251999142</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.09791461035582</v>
+        <v>21.95596745907376</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.67112778751499</v>
+        <v>8.872782928329425</v>
       </c>
       <c r="C18">
-        <v>9.827892646937595</v>
+        <v>6.474863681290079</v>
       </c>
       <c r="D18">
-        <v>5.80213484715345</v>
+        <v>7.042725544601837</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.4959543805051</v>
+        <v>39.4157007057505</v>
       </c>
       <c r="G18">
-        <v>2.077733759161957</v>
+        <v>3.675526530713211</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.97325785956033</v>
+        <v>30.60466611185442</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.65393399929913</v>
+        <v>9.953281415537665</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.50420227944418</v>
+        <v>21.80155423923839</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.62004298190353</v>
+        <v>8.862839270727779</v>
       </c>
       <c r="C19">
-        <v>9.781265091788203</v>
+        <v>6.46031428716915</v>
       </c>
       <c r="D19">
-        <v>5.801471627935493</v>
+        <v>7.041263068751213</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.33893613946341</v>
+        <v>39.36993566746549</v>
       </c>
       <c r="G19">
-        <v>2.07856808148628</v>
+        <v>3.675763932671666</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.88151741450918</v>
+        <v>30.5800168119777</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.60467569317853</v>
+        <v>9.946514406061507</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.3031825301882</v>
+        <v>21.74916984185613</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.84858488913556</v>
+        <v>8.907745173177144</v>
       </c>
       <c r="C20">
-        <v>9.990060520800851</v>
+        <v>6.525669154736244</v>
       </c>
       <c r="D20">
-        <v>5.804411198034399</v>
+        <v>7.047813421875053</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.04458032591553</v>
+        <v>39.57583974423105</v>
       </c>
       <c r="G20">
-        <v>2.074811939094697</v>
+        <v>3.674701697480389</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.2943218862806</v>
+        <v>30.69100066823282</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.825148574306</v>
+        <v>9.977163796527213</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.20781828767463</v>
+        <v>21.98449575666244</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.5931343084852</v>
+        <v>9.061214772651137</v>
       </c>
       <c r="C21">
-        <v>10.67406653662773</v>
+        <v>6.742933487129574</v>
       </c>
       <c r="D21">
-        <v>5.813427946042439</v>
+        <v>7.069281671730998</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.40019110891641</v>
+        <v>40.26639752043864</v>
       </c>
       <c r="G21">
-        <v>2.062131684167773</v>
+        <v>3.671239097176925</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.68159021674946</v>
+        <v>31.06473340552998</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.54528114606982</v>
+        <v>10.08349416144781</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.26092877921668</v>
+        <v>22.76723437816354</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.06261094020451</v>
+        <v>9.1632311999238</v>
       </c>
       <c r="C22">
-        <v>11.10880895456111</v>
+        <v>6.882927874028271</v>
       </c>
       <c r="D22">
-        <v>5.818567128021452</v>
+        <v>7.082911841794706</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>49.9308003193682</v>
+        <v>40.71620155468666</v>
       </c>
       <c r="G22">
-        <v>2.053754181179762</v>
+        <v>3.669054894133791</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.59005664265216</v>
+        <v>31.30938067589381</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.00091398220613</v>
+        <v>10.15536649806283</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.28587884298136</v>
+        <v>23.27202870438565</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.81359525862594</v>
+        <v>9.108640049492802</v>
       </c>
       <c r="C23">
-        <v>10.87785063497948</v>
+        <v>6.808409973784597</v>
       </c>
       <c r="D23">
-        <v>5.815902167840096</v>
+        <v>7.07567369309919</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.11450154144349</v>
+        <v>40.47630828106683</v>
       </c>
       <c r="G23">
-        <v>2.058237003443823</v>
+        <v>3.6702134636865</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>34.10489800728163</v>
+        <v>31.17878719270966</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.75908473152158</v>
+        <v>10.11679696722859</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.20095285046</v>
+        <v>23.00328282765539</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.83612287932365</v>
+        <v>8.905268852270527</v>
       </c>
       <c r="C24">
-        <v>9.978662162327</v>
+        <v>6.522088177744839</v>
       </c>
       <c r="D24">
-        <v>5.804252775700942</v>
+        <v>7.047455744364532</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.00589181113753</v>
+        <v>39.56453568383782</v>
       </c>
       <c r="G24">
-        <v>2.075018333853292</v>
+        <v>3.674759629022367</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.27165458108397</v>
+        <v>30.68490219504751</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.8131197402359</v>
+        <v>9.975467767001032</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.1581302955311</v>
+        <v>21.97160028012341</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.7065201798129</v>
+        <v>8.694666303391033</v>
       </c>
       <c r="C25">
-        <v>8.951276180664451</v>
+        <v>6.206477308282162</v>
       </c>
       <c r="D25">
-        <v>5.789091015505687</v>
+        <v>7.015285663991085</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.60120420418605</v>
+        <v>38.57833729958377</v>
       </c>
       <c r="G25">
-        <v>2.093002540879221</v>
+        <v>3.680004800333182</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.29329998576465</v>
+        <v>30.15537550061839</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.7260123713802</v>
+        <v>9.833998713859051</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>32.81098757109131</v>
+        <v>20.83550637905625</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_239/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_239/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.548630032445971</v>
+        <v>9.807924756513085</v>
       </c>
       <c r="C2">
-        <v>5.970463816142452</v>
+        <v>8.140920922282007</v>
       </c>
       <c r="D2">
-        <v>6.9900901382996</v>
+        <v>5.776127700023451</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.85399937855807</v>
+        <v>40.04362459978942</v>
       </c>
       <c r="G2">
-        <v>3.684164499749922</v>
+        <v>2.106370121775742</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.76982366931074</v>
+        <v>28.83113536481871</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.740037407290277</v>
+        <v>9.865798570680427</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.98603826851946</v>
+        <v>29.53389319745263</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.45602314389853</v>
+        <v>9.156151212106421</v>
       </c>
       <c r="C3">
-        <v>5.809500048581438</v>
+        <v>7.556225329502713</v>
       </c>
       <c r="D3">
-        <v>6.972064157142922</v>
+        <v>5.766342049821177</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.36635795548637</v>
+        <v>38.27975087783514</v>
       </c>
       <c r="G3">
-        <v>3.68717132107713</v>
+        <v>2.115592929893098</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.51202224410364</v>
+        <v>27.83671778009937</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.683072517760785</v>
+        <v>9.244538356689363</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.40631995522224</v>
+        <v>27.23495132288883</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.402533371951099</v>
+        <v>8.73452323933736</v>
       </c>
       <c r="C4">
-        <v>5.710624044603991</v>
+        <v>7.179152216458015</v>
       </c>
       <c r="D4">
-        <v>6.960524060257514</v>
+        <v>5.759865336116775</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.06926494600875</v>
+        <v>37.18305999195682</v>
       </c>
       <c r="G4">
-        <v>3.689110801691855</v>
+        <v>2.12135919145125</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.35571064334581</v>
+        <v>27.22491317538961</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.651512405191149</v>
+        <v>8.843943248958766</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.04988425719545</v>
+        <v>25.77721920603519</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.381617084088896</v>
+        <v>8.557271260640979</v>
       </c>
       <c r="C5">
-        <v>5.670392966086945</v>
+        <v>7.020873668196911</v>
       </c>
       <c r="D5">
-        <v>6.955702245480214</v>
+        <v>5.757110933076405</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.94888966563617</v>
+        <v>36.73303423018515</v>
       </c>
       <c r="G5">
-        <v>3.689924705690023</v>
+        <v>2.123737947462977</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.29254888280055</v>
+        <v>26.97541099227611</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.639525166342333</v>
+        <v>8.675857417108272</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.90475124212305</v>
+        <v>25.17060717316425</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.378198111111148</v>
+        <v>8.527509196716879</v>
       </c>
       <c r="C6">
-        <v>5.66371852883289</v>
+        <v>6.994310615352413</v>
       </c>
       <c r="D6">
-        <v>6.95489437895922</v>
+        <v>5.756646678205405</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.92894642143912</v>
+        <v>36.65813073645566</v>
       </c>
       <c r="G6">
-        <v>3.690061278936789</v>
+        <v>2.124134767215342</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.28209442819684</v>
+        <v>26.93397428837047</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.637587864043393</v>
+        <v>8.647653945962604</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.88066630669338</v>
+        <v>25.06909458260755</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.402247676815595</v>
+        <v>8.73215482064043</v>
       </c>
       <c r="C7">
-        <v>5.71008112636792</v>
+        <v>7.177036410954524</v>
       </c>
       <c r="D7">
-        <v>6.960459514508773</v>
+        <v>5.759828652336082</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.0676385760578</v>
+        <v>37.17700291170242</v>
       </c>
       <c r="G7">
-        <v>3.689121682807724</v>
+        <v>2.121391151272327</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.354856599367</v>
+        <v>27.22154887160914</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.65134718507769</v>
+        <v>8.841696011498707</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.04792614299732</v>
+        <v>25.76909031426244</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.516020226287276</v>
+        <v>9.587614254599769</v>
       </c>
       <c r="C8">
-        <v>5.915015253191753</v>
+        <v>7.943020986985465</v>
       </c>
       <c r="D8">
-        <v>6.983972502132392</v>
+        <v>5.772852680515852</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>37.68544471307943</v>
+        <v>39.43844088413609</v>
       </c>
       <c r="G8">
-        <v>3.685181948115045</v>
+        <v>2.109530568082456</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.68054649056301</v>
+        <v>28.48857650896757</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.719696076637687</v>
+        <v>9.655540883788861</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.78639285441124</v>
+        <v>28.75017529331998</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.764304766841407</v>
+        <v>11.09727091521383</v>
       </c>
       <c r="C9">
-        <v>6.313511207159841</v>
+        <v>9.305451601332589</v>
       </c>
       <c r="D9">
-        <v>7.026355333424945</v>
+        <v>5.794499311750897</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>38.91054152076692</v>
+        <v>43.75582078225068</v>
       </c>
       <c r="G9">
-        <v>3.678191982686097</v>
+        <v>2.086937956177079</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.33317946629499</v>
+        <v>30.96041599056262</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.88011729974583</v>
+        <v>11.10134437110936</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.22071964890977</v>
+        <v>34.28235913978191</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.959849179978955</v>
+        <v>12.10725530798262</v>
       </c>
       <c r="C10">
-        <v>6.600429488238202</v>
+        <v>10.227009578214</v>
       </c>
       <c r="D10">
-        <v>7.055250240163947</v>
+        <v>5.807647587620715</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>39.81241494629256</v>
+        <v>46.85311056647043</v>
       </c>
       <c r="G10">
-        <v>3.67349901474923</v>
+        <v>2.070485656258927</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.8187762874194</v>
+        <v>32.76892261163704</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.01300139100805</v>
+        <v>12.07500711253153</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.25375422250486</v>
+        <v>38.24908109111427</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.051165699379917</v>
+        <v>12.5458917691659</v>
       </c>
       <c r="C11">
-        <v>6.72896620154513</v>
+        <v>10.63047734346675</v>
       </c>
       <c r="D11">
-        <v>7.06791394601471</v>
+        <v>5.812884857978765</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40.22172668537277</v>
+        <v>48.24813186811926</v>
       </c>
       <c r="G11">
-        <v>3.67145886592864</v>
+        <v>2.062957561837385</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.04048833059582</v>
+        <v>33.59163106289185</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.07646291453486</v>
+        <v>12.49950026038608</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.71689135662222</v>
+        <v>40.0618239270965</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.086042871735442</v>
+        <v>12.70905221793254</v>
       </c>
       <c r="C12">
-        <v>6.777300820038144</v>
+        <v>10.78113811485977</v>
       </c>
       <c r="D12">
-        <v>7.072640663983528</v>
+        <v>5.814741560550835</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>40.37647290802109</v>
+        <v>48.77480239135776</v>
       </c>
       <c r="G12">
-        <v>3.670699833351534</v>
+        <v>2.060092315442276</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.12451665965057</v>
+        <v>33.90344243680086</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.10090453577701</v>
+        <v>12.65766476552913</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.891121531842</v>
+        <v>40.75290728449126</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.078518882856084</v>
+        <v>12.67404279857277</v>
       </c>
       <c r="C13">
-        <v>6.766907005281675</v>
+        <v>10.74878257264541</v>
       </c>
       <c r="D13">
-        <v>7.071625732549487</v>
+        <v>5.81434771988625</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>40.34315850091427</v>
+        <v>48.66143629777671</v>
       </c>
       <c r="G13">
-        <v>3.670862704407276</v>
+        <v>2.060710198038304</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.10641723877798</v>
+        <v>33.83627049691697</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.09562272963556</v>
+        <v>12.62371491162215</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.85365166015715</v>
+        <v>40.60379646423357</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.054029342157413</v>
+        <v>12.55937376754026</v>
       </c>
       <c r="C14">
-        <v>6.73294981648099</v>
+        <v>10.64291396562284</v>
       </c>
       <c r="D14">
-        <v>7.068304191719355</v>
+        <v>5.813040288827791</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>40.23446342905192</v>
+        <v>48.2914901277339</v>
       </c>
       <c r="G14">
-        <v>3.671396149271279</v>
+        <v>2.06272218220005</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.04740023629611</v>
+        <v>33.61727653274221</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.07846565653844</v>
+        <v>12.5125638888102</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.7312493528282</v>
+        <v>40.11856298889774</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.039066297395864</v>
+        <v>12.48875397325143</v>
       </c>
       <c r="C15">
-        <v>6.712104323548808</v>
+        <v>10.57779440500967</v>
       </c>
       <c r="D15">
-        <v>7.066260709494972</v>
+        <v>5.812222245686377</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>40.16784850136219</v>
+        <v>48.06469598686464</v>
       </c>
       <c r="G15">
-        <v>3.671724658631821</v>
+        <v>2.063952408842014</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.01125847315225</v>
+        <v>33.48318183913</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.06800916748832</v>
+        <v>12.44414653982433</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.65611982084151</v>
+        <v>39.82206896777234</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.953925366740643</v>
+        <v>12.07817511372327</v>
       </c>
       <c r="C16">
-        <v>6.591984655020819</v>
+        <v>10.20033662145832</v>
       </c>
       <c r="D16">
-        <v>7.054412995923466</v>
+        <v>5.807288858533316</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>39.78563644967475</v>
+        <v>46.76169216385964</v>
       </c>
       <c r="G16">
-        <v>3.673634241208459</v>
+        <v>2.070976097149778</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.80429929270769</v>
+        <v>32.71517675789873</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.00891269222485</v>
+        <v>12.04690037760354</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.2233352512412</v>
+        <v>38.13105087392955</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.902269262762442</v>
+        <v>11.82100618467135</v>
       </c>
       <c r="C17">
-        <v>6.517747001549902</v>
+        <v>9.964837764207008</v>
       </c>
       <c r="D17">
-        <v>7.047021949770679</v>
+        <v>5.804060309026762</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>39.55083531771094</v>
+        <v>45.95899440084744</v>
       </c>
       <c r="G17">
-        <v>3.674829899870613</v>
+        <v>2.075268448302878</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.6775117809827</v>
+        <v>32.24418303672741</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.973414251999142</v>
+        <v>11.79852955668643</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.95596745907376</v>
+        <v>37.09791461035575</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.872782928329425</v>
+        <v>11.67112778751499</v>
       </c>
       <c r="C18">
-        <v>6.474863681290079</v>
+        <v>9.827892646937579</v>
       </c>
       <c r="D18">
-        <v>7.042725544601837</v>
+        <v>5.802134847153455</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>39.4157007057505</v>
+        <v>45.49595438050513</v>
       </c>
       <c r="G18">
-        <v>3.675526530713211</v>
+        <v>2.077733759161957</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.60466611185442</v>
+        <v>31.97325785956034</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.953281415537665</v>
+        <v>11.65393399929915</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.80155423923839</v>
+        <v>36.50420227944426</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.862839270727779</v>
+        <v>11.62004298190349</v>
       </c>
       <c r="C19">
-        <v>6.46031428716915</v>
+        <v>9.78126509178812</v>
       </c>
       <c r="D19">
-        <v>7.041263068751213</v>
+        <v>5.80147162793569</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>39.36993566746549</v>
+        <v>45.3389361394633</v>
       </c>
       <c r="G19">
-        <v>3.675763932671666</v>
+        <v>2.078568081486413</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.5800168119777</v>
+        <v>31.88151741450914</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.946514406061507</v>
+        <v>11.60467569317849</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.74916984185613</v>
+        <v>36.30318253018802</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.907745173177144</v>
+        <v>11.8485848891357</v>
       </c>
       <c r="C20">
-        <v>6.525669154736244</v>
+        <v>9.990060520800736</v>
       </c>
       <c r="D20">
-        <v>7.047813421875053</v>
+        <v>5.80441119803459</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>39.57583974423105</v>
+        <v>46.04458032591566</v>
       </c>
       <c r="G20">
-        <v>3.674701697480389</v>
+        <v>2.074811939094567</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.69100066823282</v>
+        <v>32.29432188628067</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.977163796527213</v>
+        <v>11.82514857430603</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.98449575666244</v>
+        <v>37.20781828767461</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.061214772651137</v>
+        <v>12.59313430848514</v>
       </c>
       <c r="C21">
-        <v>6.742933487129574</v>
+        <v>10.67406653662791</v>
       </c>
       <c r="D21">
-        <v>7.069281671730998</v>
+        <v>5.813427946042612</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>40.26639752043864</v>
+        <v>48.40019110891642</v>
       </c>
       <c r="G21">
-        <v>3.671239097176925</v>
+        <v>2.062131684167771</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.06473340552998</v>
+        <v>33.68159021674953</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.08349416144781</v>
+        <v>12.5452811460698</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.76723437816354</v>
+        <v>40.26092877921664</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.1632311999238</v>
+        <v>13.06261094020445</v>
       </c>
       <c r="C22">
-        <v>6.882927874028271</v>
+        <v>11.10880895456112</v>
       </c>
       <c r="D22">
-        <v>7.082911841794706</v>
+        <v>5.818567128021527</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>40.71620155468666</v>
+        <v>49.93080031936832</v>
       </c>
       <c r="G22">
-        <v>3.669054894133791</v>
+        <v>2.053754181179757</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>31.30938067589381</v>
+        <v>34.59005664265228</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.15536649806283</v>
+        <v>13.00091398220608</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.27202870438565</v>
+        <v>42.28587884298128</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.108640049492802</v>
+        <v>12.81359525862596</v>
       </c>
       <c r="C23">
-        <v>6.808409973784597</v>
+        <v>10.87785063497952</v>
       </c>
       <c r="D23">
-        <v>7.07567369309919</v>
+        <v>5.815902167840019</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>40.47630828106683</v>
+        <v>49.11450154144374</v>
       </c>
       <c r="G23">
-        <v>3.6702134636865</v>
+        <v>2.05823700344369</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.17878719270966</v>
+        <v>34.10489800728176</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.11679696722859</v>
+        <v>12.75908473152162</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.00328282765539</v>
+        <v>41.20095285046009</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.905268852270527</v>
+        <v>11.83612287932378</v>
       </c>
       <c r="C24">
-        <v>6.522088177744839</v>
+        <v>9.978662162327028</v>
       </c>
       <c r="D24">
-        <v>7.047455744364532</v>
+        <v>5.804252775700782</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>39.56453568383782</v>
+        <v>46.00589181113757</v>
       </c>
       <c r="G24">
-        <v>3.674759629022367</v>
+        <v>2.075018333853041</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.68490219504751</v>
+        <v>32.27165458108397</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.975467767001032</v>
+        <v>11.8131197402361</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.97160028012341</v>
+        <v>37.15813029553133</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.694666303391033</v>
+        <v>10.70652017981294</v>
       </c>
       <c r="C25">
-        <v>6.206477308282162</v>
+        <v>8.951276180664488</v>
       </c>
       <c r="D25">
-        <v>7.015285663991085</v>
+        <v>5.789091015505678</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.57833729958377</v>
+        <v>42.60120420418617</v>
       </c>
       <c r="G25">
-        <v>3.680004800333182</v>
+        <v>2.093002540879086</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.15537550061839</v>
+        <v>30.29329998576478</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.833998713859051</v>
+        <v>10.72601237138024</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.83550637905625</v>
+        <v>32.81098757109132</v>
       </c>
       <c r="N25">
         <v>0</v>
